--- a/data/trans_orig/P35_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Provincia-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>15,11%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,81%</t>
+          <t>82,35%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>89,93%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,53%</t>
+          <t>85,49%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>84,74%</t>
+          <t>84,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -908,12 +908,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>34,28%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,69%</t>
+          <t>44,83%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -929,12 +929,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>36,86%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,67%</t>
+          <t>44,89%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>43,22%</t>
+          <t>43,03%</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>55,31%</t>
+          <t>55,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>66,29%</t>
+          <t>65,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>55,33%</t>
+          <t>55,11%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>63,04%</t>
+          <t>63,14%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>56,78%</t>
+          <t>56,97%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>63,35%</t>
+          <t>63,17%</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>32,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>31,95%</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>67,23%</t>
+          <t>67,15%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,68%</t>
+          <t>76,13%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,53%</t>
+          <t>66,8%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74,59%</t>
+          <t>74,45%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>68,05%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>74,36%</t>
+          <t>74,41%</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>27,61%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>26,5%</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>72,24%</t>
+          <t>72,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>82,95%</t>
+          <t>82,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>71,89%</t>
+          <t>71,44%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>80,98%</t>
+          <t>80,43%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>73,57%</t>
+          <t>73,5%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>80,21%</t>
+          <t>80,22%</t>
         </is>
       </c>
     </row>
@@ -1559,12 +1559,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>33,78%</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>63,51%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>75,06%</t>
+          <t>74,96%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>64,85%</t>
+          <t>64,81%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>74,12%</t>
+          <t>73,83%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>66,13%</t>
+          <t>66,22%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>73,85%</t>
+          <t>73,56%</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>35,22%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>25,79%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>34,48%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>33,63%</t>
+          <t>34,09%</t>
         </is>
       </c>
     </row>
@@ -1847,12 +1847,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>64,68%</t>
+          <t>64,78%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>73,86%</t>
+          <t>73,8%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>65,34%</t>
+          <t>65,52%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>73,93%</t>
+          <t>74,21%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>66,37%</t>
+          <t>65,91%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>72,69%</t>
+          <t>72,34%</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2014,12 +2014,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>34,41%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>30,31%</t>
         </is>
       </c>
     </row>
@@ -2064,12 +2064,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>72,07%</t>
+          <t>71,9%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>78,78%</t>
+          <t>78,97%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2085,12 +2085,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>65,4%</t>
+          <t>65,59%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>82,65%</t>
+          <t>83,03%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>70,11%</t>
+          <t>69,69%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>79,49%</t>
+          <t>79,89%</t>
         </is>
       </c>
     </row>
@@ -2210,12 +2210,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>45,5%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>62,04%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>62,38%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>68,75%</t>
+          <t>68,71%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2252,12 +2252,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>54,6%</t>
+          <t>54,73%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>64,0%</t>
+          <t>64,21%</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>38,12%</t>
+          <t>37,96%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>54,56%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2302,12 +2302,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>31,29%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>38,12%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2323,12 +2323,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>45,27%</t>
         </is>
       </c>
     </row>
@@ -2427,12 +2427,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>32,91%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>37,01%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>39,06%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2469,12 +2469,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>37,67%</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>62,91%</t>
+          <t>62,99%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>67,2%</t>
+          <t>67,09%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>60,78%</t>
+          <t>60,94%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>66,41%</t>
+          <t>67,25%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2540,12 +2540,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>62,34%</t>
+          <t>62,33%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>65,92%</t>
+          <t>65,7%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P35_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Provincia-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>15,26%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,35%</t>
+          <t>82,81%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,93%</t>
+          <t>90,28%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,49%</t>
+          <t>85,53%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>84,89%</t>
+          <t>84,74%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -908,12 +908,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>44,69%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -929,12 +929,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,89%</t>
+          <t>44,67%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>36,65%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>43,03%</t>
+          <t>43,22%</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>55,17%</t>
+          <t>55,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>65,72%</t>
+          <t>66,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>55,11%</t>
+          <t>55,33%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>63,14%</t>
+          <t>63,04%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>56,97%</t>
+          <t>56,78%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>63,17%</t>
+          <t>63,35%</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>25,64%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>31,65%</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>67,15%</t>
+          <t>67,23%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,13%</t>
+          <t>76,68%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,8%</t>
+          <t>66,53%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74,45%</t>
+          <t>74,59%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>68,05%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>74,41%</t>
+          <t>74,36%</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>26,43%</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>72,39%</t>
+          <t>72,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>82,53%</t>
+          <t>82,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>71,44%</t>
+          <t>71,89%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>80,43%</t>
+          <t>80,98%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>73,5%</t>
+          <t>73,57%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>80,22%</t>
+          <t>80,21%</t>
         </is>
       </c>
     </row>
@@ -1559,12 +1559,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>33,87%</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>63,51%</t>
+          <t>63,89%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>74,96%</t>
+          <t>75,06%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>64,81%</t>
+          <t>64,85%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>73,83%</t>
+          <t>74,12%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>66,22%</t>
+          <t>66,13%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>73,56%</t>
+          <t>73,85%</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,22%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>34,48%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>34,09%</t>
+          <t>33,63%</t>
         </is>
       </c>
     </row>
@@ -1847,12 +1847,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>64,78%</t>
+          <t>64,68%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>73,8%</t>
+          <t>73,86%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>65,52%</t>
+          <t>65,34%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>74,21%</t>
+          <t>73,93%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>65,91%</t>
+          <t>66,37%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>72,34%</t>
+          <t>72,69%</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2014,12 +2014,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>29,89%</t>
         </is>
       </c>
     </row>
@@ -2064,12 +2064,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>71,9%</t>
+          <t>72,07%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>78,97%</t>
+          <t>78,78%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2085,12 +2085,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>65,59%</t>
+          <t>65,4%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>83,03%</t>
+          <t>82,65%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>69,69%</t>
+          <t>70,11%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>79,89%</t>
+          <t>79,49%</t>
         </is>
       </c>
     </row>
@@ -2210,12 +2210,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>45,5%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>62,04%</t>
+          <t>61,88%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>62,38%</t>
+          <t>61,88%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>68,71%</t>
+          <t>68,75%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2252,12 +2252,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>54,73%</t>
+          <t>54,6%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>64,21%</t>
+          <t>64,0%</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>38,12%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>54,56%</t>
+          <t>54,5%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2302,12 +2302,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>31,29%</t>
+          <t>31,25%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>38,12%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2323,12 +2323,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>36,0%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>45,27%</t>
+          <t>45,4%</t>
         </is>
       </c>
     </row>
@@ -2427,12 +2427,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>39,06%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2469,12 +2469,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>37,67%</t>
+          <t>37,66%</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>62,99%</t>
+          <t>62,91%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>67,09%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>60,94%</t>
+          <t>60,78%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>67,25%</t>
+          <t>66,41%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2540,12 +2540,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>62,33%</t>
+          <t>62,34%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>65,7%</t>
+          <t>65,92%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P35_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Provincia-trans_orig.xlsx
@@ -682,63 +682,63 @@
         <v>50</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>34325</v>
+        <v>38484</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
         <v>68</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>31953</v>
+        <v>33134</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
         <v>118</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>66278</v>
+        <v>71618</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>14,65%</t>
         </is>
       </c>
     </row>
@@ -753,63 +753,63 @@
         <v>281</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>225973</v>
+        <v>272959</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,81%</t>
+          <t>87,64%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,81%</t>
+          <t>83,55%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
         <v>470</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>239450</v>
+        <v>256501</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>88,23%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,53%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
         <v>751</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>465422</v>
+        <v>529459</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>88,09%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>84,74%</t>
+          <t>85,35%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>89,65%</t>
+          <t>90,2%</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
@@ -899,58 +899,58 @@
         <v>159</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>203431</v>
+        <v>201308</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>38,83%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,69%</t>
+          <t>44,57%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
         <v>304</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>226235</v>
+        <v>210540</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>36,95%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,67%</t>
+          <t>44,7%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
         <v>463</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>429666</v>
+        <v>411848</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>36,38%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -970,53 +970,53 @@
         <v>223</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>315866</v>
+        <v>317082</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>60,83%</t>
+          <t>61,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>55,31%</t>
+          <t>55,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>66,29%</t>
+          <t>66,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
         <v>412</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>327543</v>
+        <v>303698</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>59,15%</t>
+          <t>59,06%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>55,33%</t>
+          <t>55,3%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>63,04%</t>
+          <t>63,05%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
         <v>635</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>643409</v>
+        <v>620780</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>59,96%</t>
+          <t>60,12%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>63,35%</t>
+          <t>63,62%</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>553778</v>
+        <v>514238</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>1098</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1073075</v>
+        <v>1032628</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1116,63 +1116,63 @@
         <v>118</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>90820</v>
+        <v>87571</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>32,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
         <v>179</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>108824</v>
+        <v>101230</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>33,34%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
         <v>297</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>199645</v>
+        <v>188801</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>28,72%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>31,37%</t>
         </is>
       </c>
     </row>
@@ -1187,63 +1187,63 @@
         <v>242</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>231420</v>
+        <v>228479</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71,82%</t>
+          <t>72,29%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>67,23%</t>
+          <t>67,66%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,68%</t>
+          <t>77,17%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
         <v>356</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>264019</v>
+        <v>247493</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,81%</t>
+          <t>70,97%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,53%</t>
+          <t>66,66%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74,59%</t>
+          <t>74,77%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
         <v>598</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>495438</v>
+        <v>475973</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>71,28%</t>
+          <t>71,6%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>68,63%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>74,36%</t>
+          <t>74,6%</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>535</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>372843</v>
+        <v>348723</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>695083</v>
+        <v>664774</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1333,63 +1333,63 @@
         <v>80</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>70759</v>
+        <v>67015</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
         <v>142</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>100907</v>
+        <v>92557</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
         <v>222</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>171666</v>
+        <v>159571</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>24,13%</t>
         </is>
       </c>
     </row>
@@ -1404,63 +1404,63 @@
         <v>212</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>251481</v>
+        <v>245542</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>78,04%</t>
+          <t>78,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>72,24%</t>
+          <t>72,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>82,95%</t>
+          <t>83,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
         <v>457</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>327649</v>
+        <v>383161</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>76,45%</t>
+          <t>80,54%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>71,89%</t>
+          <t>74,77%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>80,98%</t>
+          <t>89,08%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
         <v>669</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>579130</v>
+        <v>628703</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>77,14%</t>
+          <t>79,76%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>73,57%</t>
+          <t>75,87%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>80,21%</t>
+          <t>84,9%</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1550,63 +1550,63 @@
         <v>82</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>58766</v>
+        <v>53225</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>35,99%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
         <v>153</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>70095</v>
+        <v>62732</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
         <v>235</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>128861</v>
+        <v>115957</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>33,62%</t>
         </is>
       </c>
     </row>
@@ -1621,63 +1621,63 @@
         <v>197</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>137982</v>
+        <v>125517</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>70,13%</t>
+          <t>70,22%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>64,01%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>75,06%</t>
+          <t>75,16%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
         <v>336</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>160523</v>
+        <v>144735</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>69,61%</t>
+          <t>69,76%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>64,85%</t>
+          <t>65,18%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>74,12%</t>
+          <t>74,03%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
         <v>533</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>298505</v>
+        <v>270252</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>69,85%</t>
+          <t>69,98%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>66,13%</t>
+          <t>66,38%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>73,85%</t>
+          <t>73,93%</t>
         </is>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>489</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>230618</v>
+        <v>207467</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>768</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>427366</v>
+        <v>386209</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
@@ -1767,63 +1767,63 @@
         <v>143</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>85432</v>
+        <v>81566</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
         <v>167</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>82906</v>
+        <v>77248</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>26,08%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
         <v>310</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>168338</v>
+        <v>158814</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>33,63%</t>
+          <t>33,32%</t>
         </is>
       </c>
     </row>
@@ -1838,63 +1838,63 @@
         <v>228</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>191791</v>
+        <v>188070</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>69,18%</t>
+          <t>69,75%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>64,68%</t>
+          <t>65,22%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>73,86%</t>
+          <t>74,44%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
         <v>293</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>192716</v>
+        <v>179808</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>69,92%</t>
+          <t>69,95%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>65,34%</t>
+          <t>65,28%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>73,93%</t>
+          <t>73,92%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
         <v>521</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>384507</v>
+        <v>367878</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>69,55%</t>
+          <t>69,85%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>66,37%</t>
+          <t>66,68%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>72,69%</t>
+          <t>72,98%</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
@@ -1984,63 +1984,63 @@
         <v>166</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>153126</v>
+        <v>147385</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
         <v>342</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>231754</v>
+        <v>215135</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
         <v>508</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>384880</v>
+        <v>362520</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>29,14%</t>
         </is>
       </c>
     </row>
@@ -2055,63 +2055,63 @@
         <v>433</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>474628</v>
+        <v>476894</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>75,61%</t>
+          <t>76,39%</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>72,07%</t>
+          <t>72,69%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>78,78%</t>
+          <t>79,63%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
         <v>617</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>571563</v>
+        <v>633298</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>71,15%</t>
+          <t>74,64%</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>65,4%</t>
+          <t>65,62%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>82,65%</t>
+          <t>88,54%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
         <v>1050</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1046191</v>
+        <v>1110192</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>73,11%</t>
+          <t>75,38%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>70,11%</t>
+          <t>70,86%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>79,49%</t>
+          <t>84,28%</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>959</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>803317</v>
+        <v>848433</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>1558</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1431071</v>
+        <v>1472712</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
@@ -2201,63 +2201,63 @@
         <v>488</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>488627</v>
+        <v>415108</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>56,85%</t>
+          <t>44,7%</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>45,5%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>61,8%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
         <v>719</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>568142</v>
+        <v>471058</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>65,68%</t>
+          <t>65,9%</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>62,12%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>68,75%</t>
+          <t>68,87%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
         <v>1207</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1056769</v>
+        <v>886167</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>61,28%</t>
+          <t>53,92%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>54,6%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>64,0%</t>
+          <t>63,85%</t>
         </is>
       </c>
     </row>
@@ -2272,63 +2272,63 @@
         <v>274</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>370801</v>
+        <v>513612</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>43,15%</t>
+          <t>55,3%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>38,12%</t>
+          <t>38,2%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>78,7%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
         <v>341</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>296899</v>
+        <v>243791</v>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>34,32%</t>
+          <t>34,1%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>31,13%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>38,12%</t>
+          <t>37,88%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
         <v>615</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>667700</v>
+        <v>757403</v>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>38,72%</t>
+          <t>46,08%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>68,24%</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>865041</v>
+        <v>714849</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1724469</v>
+        <v>1643570</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
@@ -2418,63 +2418,63 @@
         <v>1286</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1185285</v>
+        <v>1091663</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
         <v>2074</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>1420816</v>
+        <v>1263634</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>37,38%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>37,57%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
         <v>3360</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2606102</v>
+        <v>2355296</v>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>33,1%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>35,37%</t>
         </is>
       </c>
     </row>
@@ -2489,63 +2489,63 @@
         <v>2090</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2199943</v>
+        <v>2368154</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>64,99%</t>
+          <t>68,45%</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>62,91%</t>
+          <t>65,39%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>67,2%</t>
+          <t>75,76%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
         <v>3282</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>2380362</v>
+        <v>2392485</v>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>62,62%</t>
+          <t>65,44%</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>60,78%</t>
+          <t>62,43%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>66,41%</t>
+          <t>71,64%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
         <v>5372</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>4580305</v>
+        <v>4760640</v>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>63,74%</t>
+          <t>66,9%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>62,34%</t>
+          <t>64,63%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>65,92%</t>
+          <t>72,12%</t>
         </is>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>5356</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>3801178</v>
+        <v>3656119</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>8732</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>7186407</v>
+        <v>7115936</v>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P35_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Provincia-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +532,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
+          <t>Población según si su médico u otra persona le ha aconsejado que realice algún tipo de ejercicio físico en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +556,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -584,65 +596,95 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
@@ -666,79 +708,127 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>38484</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>33134</v>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>497</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>71618</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2695</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2497</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,08%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
         </is>
       </c>
     </row>
@@ -746,70 +836,112 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>281</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>272959</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,64%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>83,55%</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>470</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>256501</v>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>88,56%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,83%</t>
+          <t>507</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>91,22%</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>751</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>529459</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2921</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>85,35%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>90,2%</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3027</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>0,08%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
         </is>
       </c>
     </row>
@@ -817,145 +949,225 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>331</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>311443</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>38484</t>
+        </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>29830</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>53249</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>538</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>289635</v>
+          <t>12,36%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17,1%</t>
+        </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>32130</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>869</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>601077</v>
+          <t>24759</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>40455</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11,09%</t>
+        </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>70613</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>57031</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>86117</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>9,49%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>14,33%</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Cadiz</t>
-        </is>
-      </c>
+      <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>159</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>201308</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>272959</t>
+        </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,83%</t>
+          <t>258194</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>281613</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,57%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>304</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>210540</v>
+          <t>87,64%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>82,9%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>90,42%</t>
+        </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>470</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,95%</t>
+          <t>256501</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,7%</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>463</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>411848</v>
+          <t>247779</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>264136</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>88,56%</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>85,55%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>36,38%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>43,22%</t>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>529459</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>513940</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>543715</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>88,09%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>85,5%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>90,46%</t>
         </is>
       </c>
     </row>
@@ -963,216 +1175,342 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>223</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>317082</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>311443</t>
+        </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>61,17%</t>
+          <t>311443</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>55,43%</t>
+          <t>311443</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>66,74%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>412</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>303698</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>59,06%</t>
+          <t>538</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>55,3%</t>
+          <t>289635</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>63,05%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>635</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>620780</v>
+          <t>289635</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>289635</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>60,12%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>56,78%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>63,62%</t>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>601077</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>601077</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>601077</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>382</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>518390</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>67437</t>
+        </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>48141</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>91858</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>716</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>514238</v>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9,29%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17,72%</t>
+        </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>77453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>1098</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>1032628</v>
+          <t>63583</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>93747</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>15,06%</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>144890</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>119344</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>172335</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>14,03%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>11,56%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>16,69%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Cordoba</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>87571</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>1549</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>11427</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>179</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>101230</v>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>4877</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>297</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>188801</v>
+          <t>2143</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10099</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>9677</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>5040</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>17922</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
         </is>
       </c>
     </row>
@@ -1180,70 +1518,112 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>242</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>228479</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>129071</t>
+        </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,29%</t>
+          <t>107070</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>67,66%</t>
+          <t>154146</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>77,17%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>356</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>247493</v>
+          <t>24,9%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20,65%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29,74%</t>
+        </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,97%</t>
+          <t>188</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,66%</t>
+          <t>128209</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74,77%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>598</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>475973</v>
+          <t>111894</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>145851</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>24,93%</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>71,6%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>68,63%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>74,6%</t>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>257280</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>230456</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>289330</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>24,92%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>22,32%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>28,02%</t>
         </is>
       </c>
     </row>
@@ -1251,216 +1631,342 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>316050</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>317082</t>
+        </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>285368</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>345624</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>535</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>348723</v>
+          <t>61,17%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>55,05%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>66,67%</t>
+        </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>303698</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>895</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>664774</v>
+          <t>283150</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>322731</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>59,06%</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>55,06%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>62,76%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>620780</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>584253</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>656152</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>60,12%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>56,58%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>63,54%</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Granada</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>67015</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>518390</t>
+        </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>518390</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>518390</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>142</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>92557</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>716</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>514238</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>222</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>159571</v>
+          <t>514238</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>514238</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>1098</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1032628</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1032628</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1032628</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>212</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>245542</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1483</t>
+        </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>78,56%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>72,57%</t>
+          <t>5345</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>83,32%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>457</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>383161</v>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>80,54%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>74,77%</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>89,08%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>669</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>628703</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6232</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>79,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>75,87%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>84,9%</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2640</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>7304</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>0,08%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
         </is>
       </c>
     </row>
@@ -1468,145 +1974,225 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>292</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>312557</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2810</t>
+        </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>665</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>7897</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>599</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>475718</v>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5252</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>891</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>788274</v>
+          <t>2374</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>12313</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>8063</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>3864</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>14995</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Huelva</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>53225</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>83277</t>
+        </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>68553</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>96943</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>62732</v>
+          <t>26,35%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>21,69%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30,67%</t>
+        </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>171</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>94821</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>235</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>115957</v>
+          <t>81683</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>108771</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>27,19%</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>33,62%</t>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>178098</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>158487</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>198551</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>26,79%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>29,87%</t>
         </is>
       </c>
     </row>
@@ -1617,67 +2203,109 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>197</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>125517</v>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>228479</t>
+        </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>70,22%</t>
+          <t>214279</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>64,01%</t>
+          <t>242141</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>75,16%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>336</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>144735</v>
+          <t>72,29%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>67,8%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>76,61%</t>
+        </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>69,76%</t>
+          <t>356</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>65,18%</t>
+          <t>247493</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>74,03%</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>533</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>270252</v>
+          <t>232639</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>261417</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>70,97%</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>69,98%</t>
+          <t>66,71%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>66,38%</t>
+          <t>74,96%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>73,93%</t>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>475973</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>454515</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>496822</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>71,6%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>68,37%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>74,74%</t>
         </is>
       </c>
     </row>
@@ -1688,20 +2316,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>279</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>178742</v>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>316050</t>
+        </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>316050</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>316050</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1709,32 +2341,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>489</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>207467</v>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>535</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>348723</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>768</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>386209</v>
+          <t>348723</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>348723</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
@@ -1747,6 +2387,36 @@
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>664774</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>664774</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>664774</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1755,75 +2425,117 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>143</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>81566</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2691</t>
+        </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>717</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>7462</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>167</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>77248</v>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>7352</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>34,72%</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>310</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>158814</v>
+          <t>2318</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>19253</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1,55%</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>10043</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>21775</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -1831,70 +2543,112 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>188070</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2263</t>
+        </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>69,75%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>65,22%</t>
+          <t>9746</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>74,44%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>293</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>179808</v>
+          <t>0,72%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>69,95%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>65,28%</t>
+          <t>1206</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>73,92%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>521</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>367878</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>69,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>66,68%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>72,98%</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>3469</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>10683</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>0,12%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
         </is>
       </c>
     </row>
@@ -1902,145 +2656,225 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>371</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>269636</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>62061</t>
+        </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>48742</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>77603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>460</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>257056</v>
+          <t>19,86%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>15,59%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>24,83%</t>
+        </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>134</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>83999</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>831</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>526692</v>
+          <t>49406</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>107218</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>17,66%</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>146059</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>109965</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>177379</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>18,53%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>13,95%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>22,5%</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>166</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>147385</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>245542</t>
+        </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>228957</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>259243</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>342</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>215135</v>
+          <t>78,56%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>73,25%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>82,94%</t>
+        </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>383161</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>508</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>362520</v>
+          <t>356859</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>421272</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>80,54%</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>75,01%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>628703</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>596128</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>668065</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>79,76%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>75,62%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>84,75%</t>
         </is>
       </c>
     </row>
@@ -2048,216 +2882,342 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>433</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>476894</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>312557</t>
+        </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>76,39%</t>
+          <t>312557</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>72,69%</t>
+          <t>312557</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>79,63%</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>617</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>633298</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>74,64%</t>
+          <t>599</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>65,62%</t>
+          <t>475718</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>1050</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>1110192</v>
+          <t>475718</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>475718</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>75,38%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>70,86%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>84,28%</t>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>788274</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>788274</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>788274</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>599</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>624279</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>16408</t>
+        </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>10319</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>26407</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>959</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>848433</v>
+          <t>9,18%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14,77%</t>
+        </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>15957</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>1558</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>1472712</v>
+          <t>10648</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>23711</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>32366</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>23142</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>44314</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>11,47%</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
+      <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>488</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>415108</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>11099</t>
+        </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>44,7%</t>
+          <t>6831</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>61,8%</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>719</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>471058</v>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>10,07%</t>
+        </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>65,9%</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>62,12%</t>
+          <t>6554</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>68,87%</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>1207</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>886167</v>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>11616</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>53,92%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>63,85%</t>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>17653</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>12723</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>26801</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>4,57%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>6,94%</t>
         </is>
       </c>
     </row>
@@ -2265,70 +3225,112 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>274</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>513612</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>25718</t>
+        </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>55,3%</t>
+          <t>19737</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>34606</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>78,7%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>341</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>243791</v>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>11,04%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>19,36%</t>
+        </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>40220</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>615</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>757403</v>
+          <t>33331</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>48338</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>19,39%</t>
+        </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>46,08%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>68,24%</t>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>65938</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>55406</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>77041</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>17,07%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>14,35%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
         </is>
       </c>
     </row>
@@ -2336,216 +3338,342 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>762</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>928720</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>125517</t>
+        </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>114211</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>134572</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>1060</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>714849</v>
+          <t>70,22%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>63,9%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>75,29%</t>
+        </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>336</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>144735</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>1822</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>1643570</v>
+          <t>135446</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>153745</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>69,76%</t>
+        </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>65,29%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>74,11%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>270252</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>255807</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>284918</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>69,98%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>66,24%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>73,77%</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>1286</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>1091663</v>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>178742</t>
+        </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>178742</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>178742</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>2074</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>1263634</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>489</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>207467</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>3360</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>2355296</v>
+          <t>207467</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>207467</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>386209</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>386209</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>386209</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>2090</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>2368154</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>68,45%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>65,39%</t>
+          <t>1391</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>75,76%</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>3282</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>2392485</v>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>65,44%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>62,43%</t>
+          <t>680</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>71,64%</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>5372</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>4760640</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>3480</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>66,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>64,63%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>72,12%</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>3448</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
         </is>
       </c>
     </row>
@@ -2553,75 +3681,2163 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>3376</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>3459817</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1391</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>5356</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>3656119</v>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>801</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>8732</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>7115936</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2857</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>2842</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>81566</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>69046</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>95510</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>30,25%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>25,61%</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>35,42%</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>75767</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>65482</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>85795</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>29,48%</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>25,47%</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>33,38%</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>157334</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>140071</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>174352</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>29,87%</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>26,59%</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>33,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>188070</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>174126</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>200590</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>69,75%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>64,58%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>74,39%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>179808</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>169376</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>189775</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>69,95%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>65,89%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>73,83%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>367878</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>350956</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>385085</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>69,85%</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>66,63%</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>73,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>269636</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>269636</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>269636</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>257056</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>257056</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>257056</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>526692</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>526692</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>526692</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>8931</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>4026</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>15193</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>7026</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>2511</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>14735</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>15957</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>8879</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>25450</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>7432</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>3271</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>14562</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>10997</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>4404</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>21042</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>18429</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>10204</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr">
+        <is>
+          <t>29249</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="W35" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>131022</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>111348</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>152740</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>20,99%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>24,47%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>197112</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>97601</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>268371</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>23,23%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>11,5%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>31,63%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>328134</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>206732</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>389636</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
+        <is>
+          <t>22,28%</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="W36" s="2" t="inlineStr">
+        <is>
+          <t>26,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>476894</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>454711</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>498216</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>76,39%</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>72,84%</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>79,81%</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>633298</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>556755</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>743370</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>74,64%</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>65,62%</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>87,62%</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>1110192</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>1041625</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr">
+        <is>
+          <t>1245268</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>75,38%</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t>70,73%</t>
+        </is>
+      </c>
+      <c r="W37" s="2" t="inlineStr">
+        <is>
+          <t>84,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>624279</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>624279</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>624279</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>848433</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>848433</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>848433</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>1558</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>1472712</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>1472712</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>1472712</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>153832</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>66686</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>217739</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>16,56%</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>23,45%</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>142680</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>123920</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>161489</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>19,96%</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>17,34%</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>22,59%</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>296512</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>178451</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>353831</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr">
+        <is>
+          <t>18,04%</t>
+        </is>
+      </c>
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>10,86%</t>
+        </is>
+      </c>
+      <c r="W39" s="2" t="inlineStr">
+        <is>
+          <t>21,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>54565</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>24162</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>80558</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>8,67%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>75116</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>63156</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>88810</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>10,51%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>8,83%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>12,42%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>129681</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>79741</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>158889</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr">
+        <is>
+          <t>7,89%</t>
+        </is>
+      </c>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="W40" s="2" t="inlineStr">
+        <is>
+          <t>9,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>206711</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>86063</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>290406</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>22,26%</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>9,27%</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>31,27%</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>253262</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>230606</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>275144</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>35,43%</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>32,26%</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>38,49%</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>459973</t>
+        </is>
+      </c>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>294494</t>
+        </is>
+      </c>
+      <c r="T41" s="2" t="inlineStr">
+        <is>
+          <t>554737</t>
+        </is>
+      </c>
+      <c r="U41" s="2" t="inlineStr">
+        <is>
+          <t>27,99%</t>
+        </is>
+      </c>
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>17,92%</t>
+        </is>
+      </c>
+      <c r="W41" s="2" t="inlineStr">
+        <is>
+          <t>33,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>513612</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>352724</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>751479</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>55,3%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>37,98%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>80,92%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>243791</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>223658</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>269591</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>34,1%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>31,29%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>37,71%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>757403</t>
+        </is>
+      </c>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>591180</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>1086775</t>
+        </is>
+      </c>
+      <c r="U42" s="2" t="inlineStr">
+        <is>
+          <t>46,08%</t>
+        </is>
+      </c>
+      <c r="V42" s="2" t="inlineStr">
+        <is>
+          <t>35,97%</t>
+        </is>
+      </c>
+      <c r="W42" s="2" t="inlineStr">
+        <is>
+          <t>66,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>928720</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>928720</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>928720</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>714849</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>714849</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>714849</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>1822</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t>1643570</t>
+        </is>
+      </c>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>1643570</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>1643570</t>
+        </is>
+      </c>
+      <c r="U43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>250784</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>197361</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>291370</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>252802</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>204602</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>286856</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>6,91%</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>503586</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>431360</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>558136</t>
+        </is>
+      </c>
+      <c r="U44" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="V44" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="W44" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>82969</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>62702</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>103078</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>105312</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>84247</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>125935</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>188281</t>
+        </is>
+      </c>
+      <c r="S45" s="2" t="inlineStr">
+        <is>
+          <t>155565</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="inlineStr">
+        <is>
+          <t>218111</t>
+        </is>
+      </c>
+      <c r="U45" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="W45" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>757910</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>596184</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>838612</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>21,91%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>17,23%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>24,24%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>1537</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>905520</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>748005</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>980549</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>24,77%</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>20,46%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>26,82%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>2464</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>1663430</t>
+        </is>
+      </c>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>1442636</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>1778575</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
+        <is>
+          <t>23,38%</t>
+        </is>
+      </c>
+      <c r="V46" s="2" t="inlineStr">
+        <is>
+          <t>20,27%</t>
+        </is>
+      </c>
+      <c r="W46" s="2" t="inlineStr">
+        <is>
+          <t>24,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>2090</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>2368154</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>2254994</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>2597568</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>68,45%</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>65,18%</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>75,08%</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>3282</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>2392485</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>2294154</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>2612763</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>65,44%</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>62,75%</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>71,46%</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>5372</t>
+        </is>
+      </c>
+      <c r="R47" s="2" t="inlineStr">
+        <is>
+          <t>4760640</t>
+        </is>
+      </c>
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>4606494</t>
+        </is>
+      </c>
+      <c r="T47" s="2" t="inlineStr">
+        <is>
+          <t>5082941</t>
+        </is>
+      </c>
+      <c r="U47" s="2" t="inlineStr">
+        <is>
+          <t>66,9%</t>
+        </is>
+      </c>
+      <c r="V47" s="2" t="inlineStr">
+        <is>
+          <t>64,73%</t>
+        </is>
+      </c>
+      <c r="W47" s="2" t="inlineStr">
+        <is>
+          <t>71,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>3376</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>3459817</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>3459817</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>3459817</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>5356</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>3656119</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>3656119</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>3656119</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>8732</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="inlineStr">
+        <is>
+          <t>7115936</t>
+        </is>
+      </c>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>7115936</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="inlineStr">
+        <is>
+          <t>7115936</t>
+        </is>
+      </c>
+      <c r="U48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -2629,19 +5845,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A4:A8"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
